--- a/BalanceSheet/LH_bal.xlsx
+++ b/BalanceSheet/LH_bal.xlsx
@@ -5263,7 +5263,7 @@
         <v>6793000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>6770000000.0</v>
+        <v>6173400000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>6335600000.0</v>
@@ -5390,7 +5390,7 @@
         <v>7117000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>7108000000.0</v>
+        <v>6510900000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>6696700000.0</v>
